--- a/Codes/submarines/matrices.xlsx
+++ b/Codes/submarines/matrices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="120" windowWidth="21984" windowHeight="9624" tabRatio="207"/>
+    <workbookView xWindow="576" yWindow="120" windowWidth="21984" windowHeight="9624" tabRatio="207" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -138,61 +138,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -552,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3462,12 +3416,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576 I1:M1048576 P27">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:AC1048576 Q1:U1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3478,1020 +3432,2884 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA7"/>
+  <dimension ref="A1:CH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.21875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.33203125" customWidth="1"/>
+    <col min="41" max="67" width="2.21875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>1</v>
-      </c>
-      <c r="T1" s="2">
-        <v>1</v>
-      </c>
-      <c r="U1" s="2">
-        <v>1</v>
-      </c>
-      <c r="V1" s="2">
-        <v>1</v>
-      </c>
-      <c r="W1" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="3">
+    <row r="1" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <v>1</v>
+      </c>
+      <c r="BN1">
+        <v>1</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4">
-        <v>1</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="6">
+    <row r="2" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="6">
+    <row r="3" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="10">
-        <v>1</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="5">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="6">
+    <row r="4" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
-        <v>1</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="6">
-        <v>1</v>
+    <row r="5" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>1</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="6">
+    <row r="6" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="8">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="9">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>1</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>1</v>
+      </c>
+      <c r="CD8">
+        <v>1</v>
+      </c>
+      <c r="CE8">
+        <v>1</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+    </row>
+    <row r="10" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+    </row>
+    <row r="11" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+    </row>
+    <row r="12" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+    </row>
+    <row r="13" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="11"/>
+      <c r="CG13" s="11"/>
+      <c r="CH13" s="11"/>
+    </row>
+    <row r="14" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="str">
+        <f t="shared" ref="A14:A21" si="0">CONCATENATE(AN1,AM1,AL1,AK1,AJ1,AI1,AH1,AG1,AF1,AE1,AD1,AC1,AB1,AA1,Z1,Y1,X1,W1,V1,U1,T1,S1,R1,Q1,P1,O1,N1,M1,L1,K1,J1,I1,H1,G1,F1,E1,D1,C1,B1,A1)</f>
+        <v>0000000000000000110011000000000000000000</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AU14" s="12" t="str">
+        <f t="shared" ref="AU14:AU21" si="1">CONCATENATE(CH1,CG1,CF1,CE1,CD1,CC1,CB1,CA1,BZ1,BY1,BX1,BW1,BV1,BU1,BT1,BS1,BR1,BQ1,BP1,BO1,BN1,BM1,BL1,BK1,BJ1,BI1,BH1,BG1,BF1,BE1,BD1,BC1,BB1,BA1,AZ1,AY1,AX1,AW1,AV1,AU1)</f>
+        <v>0000000000000000000011000000000000000000</v>
+      </c>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+      <c r="BR14" s="12"/>
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+      <c r="BX14" s="12"/>
+      <c r="BY14" s="12"/>
+      <c r="BZ14" s="12"/>
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+      <c r="CC14" s="12"/>
+      <c r="CD14" s="12"/>
+      <c r="CE14" s="12"/>
+      <c r="CF14" s="12"/>
+      <c r="CG14" s="12"/>
+      <c r="CH14" s="12"/>
+    </row>
+    <row r="15" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000000000110011000000000000000000</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AU15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000000011000000000000000000</v>
+      </c>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
+      <c r="BR15" s="12"/>
+      <c r="BS15" s="12"/>
+      <c r="BT15" s="12"/>
+      <c r="BU15" s="12"/>
+      <c r="BV15" s="12"/>
+      <c r="BW15" s="12"/>
+      <c r="BX15" s="12"/>
+      <c r="BY15" s="12"/>
+      <c r="BZ15" s="12"/>
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+      <c r="CC15" s="12"/>
+      <c r="CD15" s="12"/>
+      <c r="CE15" s="12"/>
+      <c r="CF15" s="12"/>
+      <c r="CG15" s="12"/>
+      <c r="CH15" s="12"/>
+    </row>
+    <row r="16" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000001111110011000000000000000000</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AU16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000011111000000000000000000</v>
+      </c>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
+      <c r="BY16" s="12"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+    </row>
+    <row r="17" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000000111111111011000000111000000000</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AU17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000111111110011000000000000</v>
+      </c>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+      <c r="CC17" s="12"/>
+      <c r="CD17" s="12"/>
+      <c r="CE17" s="12"/>
+      <c r="CF17" s="12"/>
+      <c r="CG17" s="12"/>
+      <c r="CH17" s="12"/>
+    </row>
+    <row r="18" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0000000001111111111111100011111111100000</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AU18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0011111111111111111111111111111111111100</v>
+      </c>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+      <c r="BW18" s="12"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+      <c r="CC18" s="12"/>
+      <c r="CD18" s="12"/>
+      <c r="CE18" s="12"/>
+      <c r="CF18" s="12"/>
+      <c r="CG18" s="12"/>
+      <c r="CH18" s="12"/>
+    </row>
+    <row r="19" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>1111111111111111111111111111111111111111</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AU19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1111111111111111111111111111111111111111</v>
+      </c>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="12"/>
+      <c r="BS19" s="12"/>
+      <c r="BT19" s="12"/>
+      <c r="BU19" s="12"/>
+      <c r="BV19" s="12"/>
+      <c r="BW19" s="12"/>
+      <c r="BX19" s="12"/>
+      <c r="BY19" s="12"/>
+      <c r="BZ19" s="12"/>
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+      <c r="CC19" s="12"/>
+      <c r="CD19" s="12"/>
+      <c r="CE19" s="12"/>
+      <c r="CF19" s="12"/>
+      <c r="CG19" s="12"/>
+      <c r="CH19" s="12"/>
+    </row>
+    <row r="20" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0111111111111111111111111111111111111110</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AU20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>1111111111111111111111111111111111111111</v>
+      </c>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="12"/>
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="12"/>
+    </row>
+    <row r="21" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>0011111111111111111111111111111111111100</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AU21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0011111111111111111111111111111111111100</v>
+      </c>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+      <c r="BR21" s="12"/>
+      <c r="BS21" s="12"/>
+      <c r="BT21" s="12"/>
+      <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
+      <c r="BW21" s="12"/>
+      <c r="BX21" s="12"/>
+      <c r="BY21" s="12"/>
+      <c r="BZ21" s="12"/>
+      <c r="CA21" s="12"/>
+      <c r="CB21" s="12"/>
+      <c r="CC21" s="12"/>
+      <c r="CD21" s="12"/>
+      <c r="CE21" s="12"/>
+      <c r="CF21" s="12"/>
+      <c r="CG21" s="12"/>
+      <c r="CH21" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E7">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <mergeCells count="16">
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A14:AN14"/>
+    <mergeCell ref="A21:AN21"/>
+    <mergeCell ref="A20:AN20"/>
+    <mergeCell ref="A19:AN19"/>
+    <mergeCell ref="A18:AN18"/>
+    <mergeCell ref="A17:AN17"/>
+    <mergeCell ref="A16:AN16"/>
+    <mergeCell ref="AU19:CH19"/>
+    <mergeCell ref="AU20:CH20"/>
+    <mergeCell ref="AU21:CH21"/>
+    <mergeCell ref="AU14:CH14"/>
+    <mergeCell ref="AU15:CH15"/>
+    <mergeCell ref="AU16:CH16"/>
+    <mergeCell ref="AU17:CH17"/>
+    <mergeCell ref="AU18:CH18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AQ1:AT7">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K7">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:Q7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:W7">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:AC7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AI7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK1:AO7">
+  <conditionalFormatting sqref="A1:AN8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1:AU7">
+  <conditionalFormatting sqref="AU1:CH8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW1:BA7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Codes/submarines/matrices.xlsx
+++ b/Codes/submarines/matrices.xlsx
@@ -3435,13 +3435,13 @@
   <dimension ref="A1:CH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.21875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" bestFit="1" customWidth="1"/>
     <col min="41" max="67" width="2.21875" style="5"/>
   </cols>
   <sheetData>
@@ -6273,6 +6273,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AU19:CH19"/>
+    <mergeCell ref="AU20:CH20"/>
+    <mergeCell ref="AU21:CH21"/>
+    <mergeCell ref="AU14:CH14"/>
+    <mergeCell ref="AU15:CH15"/>
+    <mergeCell ref="AU16:CH16"/>
+    <mergeCell ref="AU17:CH17"/>
+    <mergeCell ref="AU18:CH18"/>
     <mergeCell ref="A15:AN15"/>
     <mergeCell ref="A14:AN14"/>
     <mergeCell ref="A21:AN21"/>
@@ -6281,14 +6289,6 @@
     <mergeCell ref="A18:AN18"/>
     <mergeCell ref="A17:AN17"/>
     <mergeCell ref="A16:AN16"/>
-    <mergeCell ref="AU19:CH19"/>
-    <mergeCell ref="AU20:CH20"/>
-    <mergeCell ref="AU21:CH21"/>
-    <mergeCell ref="AU14:CH14"/>
-    <mergeCell ref="AU15:CH15"/>
-    <mergeCell ref="AU16:CH16"/>
-    <mergeCell ref="AU17:CH17"/>
-    <mergeCell ref="AU18:CH18"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ1:AT7">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">

--- a/Codes/submarines/matrices.xlsx
+++ b/Codes/submarines/matrices.xlsx
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -142,6 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="2">
         <v>0</v>
@@ -2939,11 +2940,11 @@
       </c>
       <c r="AD33" t="str">
         <f t="shared" ref="AD33:AD38" si="23">CONCATENATE(AC33,AB33,AA33,Z33,Y33)</f>
-        <v>00000</v>
+        <v>00100</v>
       </c>
       <c r="AE33" t="str">
         <f>CONCATENATE(AD39,AD38,AD37,AD36,AD35,AD34,AD33)</f>
-        <v>00000000000000000000000000000000000</v>
+        <v>10001010100010001110001000101000100</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3008,20 +3009,20 @@
         <v>0</v>
       </c>
       <c r="Z34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="10">
         <v>0</v>
       </c>
       <c r="AB34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="6">
         <v>0</v>
       </c>
       <c r="AD34" t="str">
         <f t="shared" si="23"/>
-        <v>00000</v>
+        <v>01010</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3089,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="10">
         <v>0</v>
@@ -3099,7 +3100,7 @@
       </c>
       <c r="AD35" t="str">
         <f t="shared" si="23"/>
-        <v>00000</v>
+        <v>00100</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3164,20 +3165,20 @@
         <v>0</v>
       </c>
       <c r="Z36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="6">
         <v>0</v>
       </c>
       <c r="AD36" t="str">
         <f t="shared" si="23"/>
-        <v>00000</v>
+        <v>01110</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3245,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="10">
         <v>0</v>
@@ -3255,7 +3256,7 @@
       </c>
       <c r="AD37" t="str">
         <f t="shared" si="23"/>
-        <v>00000</v>
+        <v>00100</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3320,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="Z38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="10">
         <v>0</v>
       </c>
       <c r="AB38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="6">
         <v>0</v>
       </c>
       <c r="AD38" t="str">
         <f t="shared" si="23"/>
-        <v>00000</v>
+        <v>01010</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3395,7 +3396,7 @@
         <v>01111</v>
       </c>
       <c r="Y39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="8">
         <v>0</v>
@@ -3407,11 +3408,11 @@
         <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="str">
         <f>CONCATENATE(AC39,AB39,AA39,Z39,Y39)</f>
-        <v>00000</v>
+        <v>10001</v>
       </c>
     </row>
   </sheetData>
@@ -3432,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH21"/>
+  <dimension ref="A1:CH33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.21875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6271,8 +6272,234 @@
       <c r="CG21" s="12"/>
       <c r="CH21" s="12"/>
     </row>
+    <row r="25" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:86" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A14:AN14"/>
+    <mergeCell ref="A21:AN21"/>
+    <mergeCell ref="A20:AN20"/>
+    <mergeCell ref="A19:AN19"/>
+    <mergeCell ref="A18:AN18"/>
+    <mergeCell ref="A17:AN17"/>
+    <mergeCell ref="A16:AN16"/>
     <mergeCell ref="AU19:CH19"/>
     <mergeCell ref="AU20:CH20"/>
     <mergeCell ref="AU21:CH21"/>
@@ -6281,14 +6508,6 @@
     <mergeCell ref="AU16:CH16"/>
     <mergeCell ref="AU17:CH17"/>
     <mergeCell ref="AU18:CH18"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A14:AN14"/>
-    <mergeCell ref="A21:AN21"/>
-    <mergeCell ref="A20:AN20"/>
-    <mergeCell ref="A19:AN19"/>
-    <mergeCell ref="A18:AN18"/>
-    <mergeCell ref="A17:AN17"/>
-    <mergeCell ref="A16:AN16"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ1:AT7">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
